--- a/BOM-OnlyPoweredBraking.xlsx
+++ b/BOM-OnlyPoweredBraking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Projects\finallyfunctional\vr-shoes-3d-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC48A84-27A5-4D4E-A49C-87BD9F0092D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D58869-4A3C-4A1C-8FDC-744F8DBA4DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7647867-DBAA-4F53-AE8E-AF47AE8504CB}"/>
+    <workbookView xWindow="-28935" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{F7647867-DBAA-4F53-AE8E-AF47AE8504CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>Item</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Percentage Total Cost</t>
   </si>
   <si>
-    <t>623ZZ Bearing</t>
-  </si>
-  <si>
     <t>R6-2RS Bearing</t>
   </si>
   <si>
@@ -77,21 +74,9 @@
     <t>https://www.mcmaster.com/1394A41</t>
   </si>
   <si>
-    <t xml:space="preserve">6-32 by 0.5 Flat Head Screws </t>
-  </si>
-  <si>
     <t>https://www.menards.com/main/hardware/fasteners-connectors/screws/sheet-metal-screws/grip-fast-reg-6-x-1-2-phillips-drive-zinc-flat-head-sheet-metal-screw-150-count/2332671/p-1444451960741-c-8936.htm</t>
   </si>
   <si>
-    <t xml:space="preserve">6-32 by 0.75 Flat Head Screws </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-32 by 1 Flat Head Screws </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-32 by 1.5 Flat Head Screws </t>
-  </si>
-  <si>
     <t>https://www.menards.com/main/hardware/fasteners-connectors/screws/sheet-metal-screws/grip-fast-reg-6-x-3-4-phillips-drive-zinc-flat-head-sheet-metal-screw-120-count/2332673/p-1444451975698-c-8936.htm</t>
   </si>
   <si>
@@ -161,30 +146,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>https://www.banggood.com/10pcs-623ZZ-3x10x4mm-Ball-Bearings-Shielded-Radial-Bearings-p-1049663.html?rmmds=search&amp;cur_warehouse=CN</t>
-  </si>
-  <si>
-    <t>3M by 1ft threaded rod</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/98861A040</t>
-  </si>
-  <si>
-    <t>For screwing each omni wheel roller together. Cut rod into 112 1in pins</t>
-  </si>
-  <si>
-    <t>Turnigy L3020B-600 Motor</t>
-  </si>
-  <si>
-    <t>https://hobbyking.com/en_us/turnigy-l3020b-600-brushless-motor-800w.html</t>
-  </si>
-  <si>
-    <t>Hobbyking X-Car 120A ESC</t>
-  </si>
-  <si>
-    <t>https://hobbyking.com/en_us/hobbykingr-x-car-120a-brushless-car-esc-sensored-sensorless.html</t>
-  </si>
-  <si>
     <t>TX60 Parallel Connector</t>
   </si>
   <si>
@@ -194,18 +155,6 @@
     <t>Connector for ESCs to battery</t>
   </si>
   <si>
-    <t>ESP8266</t>
-  </si>
-  <si>
-    <t>https://usa.banggood.com/Wireless-NodeMcu-Lua-CH340G-V3-Based-ESP8266-WIFI-Internet-of-Things-IOT-Development-Module-p-1420166.html?rmmds=search&amp;cur_warehouse=USA</t>
-  </si>
-  <si>
-    <t>Turnigy 2.2AH 3S 40C Battery</t>
-  </si>
-  <si>
-    <t>https://hobbyking.com/en_us/turnigy-2200mah-3s-40c-lipo-pack.html?queryID=81f73619b546928360c8537de74ae71a&amp;objectID=18304&amp;indexName=hbk_live_magento_en_us_products</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Warthog-Universal-Harness-Pass-Thru-Buckles/dp/B074XHBCLD/ref=sr_1_1_sspa?dchild=1&amp;keywords=safety+harness&amp;qid=1590419916&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyQzhHUkxYVklCUzRIJmVuY3J5cHRlZElkPUEwNTk2MjUyTUdRU0xLS1JYNzM0JmVuY3J5cHRlZEFkSWQ9QTAxNzUwMTE2TlZOT0RXQlpEMFEmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl</t>
   </si>
   <si>
@@ -221,24 +170,6 @@
     <t>https://hobbyking.com/en_us/h-king-premium-pa-filament-500g-soft-flesh-pink.html</t>
   </si>
   <si>
-    <t>Linear hall effect sensors</t>
-  </si>
-  <si>
-    <t>https://www.jameco.com/webapp/wcs/stores/servlet/ProductDisplay?langId=-1&amp;storeId=10001&amp;catalogId=10001&amp;productId=2135881</t>
-  </si>
-  <si>
-    <t>Linear hall effect sensors to measure RPM</t>
-  </si>
-  <si>
-    <t>1/4 by 1/8 Magnets</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/5862K114</t>
-  </si>
-  <si>
-    <t>Magnets to measure RPM</t>
-  </si>
-  <si>
     <t>https://usa.banggood.com/6DOF-MPU-6050-3-Axis-Gyro-With-Accelerometer-Sensor-Module-p-80862.html?utm_source=googleshopping&amp;utm_medium=cpc_organic&amp;gpla=1&amp;gmcCountry=US&amp;utm_content=shopping&amp;utm_campaign=usg-pc&amp;currency=USD&amp;createTmp=1&amp;utm_source=googleshopping&amp;utm_medium=cpc_bgcs&amp;utm_content=frank&amp;utm_campaign=pla-usg-rm-all-purchase-pc&amp;gclid=CjwKCAjw2a32BRBXEiwAUcugiMjOR4mnxDofoVZLrlD05hTm2rP810ITpsSeAGkrOIhKZUHHhWaVJRoCf_8QAvD_BwE&amp;cur_warehouse=CN</t>
   </si>
   <si>
@@ -248,7 +179,49 @@
     <t>Gyro to measure user position from harness and orientation of shoes</t>
   </si>
   <si>
-    <t>3 per omni wheel roller (10 omni wheels)</t>
+    <t>6-32 by 0.5 Flat Head Screws and Nuts</t>
+  </si>
+  <si>
+    <t>6-32 by 0.75 Flat Head Screws and Nuts</t>
+  </si>
+  <si>
+    <t>6-32 by 1 Flat Head Screws and Nuts</t>
+  </si>
+  <si>
+    <t>6-32 by 1.5 Flat Head Screws and Nuts</t>
+  </si>
+  <si>
+    <t>ESP32</t>
+  </si>
+  <si>
+    <t>https://usa.banggood.com/ESP32-Development-Board-WiFi+bluetooth-Ultra-Low-Power-Consumption-Dual-Cores-ESP-32-ESP-32S-Board-p-1109512.html?utm_source=googleshopping&amp;utm_medium=cpc_organic&amp;gmcCountry=US&amp;utm_content=minha&amp;utm_campaign=minha-usg-pc&amp;currency=USD&amp;createTmp=1&amp;cur_warehouse=CN</t>
+  </si>
+  <si>
+    <t>Rotacaster Omni Wheels</t>
+  </si>
+  <si>
+    <t>https://www.rotacasters.com/products/50mm-omnia-wheels/50mm-95a-durometer/</t>
+  </si>
+  <si>
+    <t>Omni Wheels</t>
+  </si>
+  <si>
+    <t>Turnigy D2205-2300KV Brushless Motor</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/brushless-motor-d2205-2300kv-cw.html?queryID=6027b233b4e94fdfa2409ffdd84da96e&amp;objectID=59941&amp;indexName=hbk_live_magento_en_us_products_hbk_price_stock_2_group_0_asc</t>
+  </si>
+  <si>
+    <t>HobbyKing 10A ESC with Reverse</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/hobbykingr-tm-brushless-car-esc-10a-w-reverse.html?queryID=1abe43e825e8ff177549c5e6c3fe1800&amp;objectID=46013&amp;indexName=hbk_live_magento_en_us_products_hbk_price_stock_2_group_0_asc</t>
+  </si>
+  <si>
+    <t>Zippy Compact 1AH 3S 25C Lipo</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/zippy-compact-1000mah-3s-25c-lipo-pack.html?queryID=f6046b353b95923268807388955de095&amp;objectID=24675&amp;indexName=hbk_live_magento_en_us_products_hbk_price_stock_2_group_0_asc</t>
   </si>
 </sst>
 </file>
@@ -611,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEECC6D-B545-4713-989F-5F6BB3EA0B27}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,16 +611,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -655,129 +628,129 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.8</v>
+        <v>0.77</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <f>B2*C2</f>
-        <v>67.199999999999989</v>
+        <f t="shared" ref="D2:D21" si="0">B2*C2</f>
+        <v>15.4</v>
       </c>
       <c r="E2">
-        <f>D2/D29 * 100</f>
-        <v>14.205986808726534</v>
+        <f>D2/D25 * 100</f>
+        <v>3.9371085261408667</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.77</v>
+        <v>2.8</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D24" si="0">B3*C3</f>
-        <v>12.32</v>
+        <f t="shared" si="0"/>
+        <v>2.8</v>
       </c>
       <c r="E3">
-        <f>D3/D29 * 100</f>
-        <v>2.6044309149331983</v>
+        <f>D3/D25 * 100</f>
+        <v>0.7158379138437938</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>2.8</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E4">
-        <f>D4/D29 * 100</f>
-        <v>0.59191611703027225</v>
+        <f>D4/D25 * 100</f>
+        <v>1.1760194298862328</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>1.1499999999999999</v>
+        <v>4.74</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
+        <v>9.48</v>
       </c>
       <c r="E5">
-        <f>D5/D29 * 100</f>
-        <v>0.97243362083544727</v>
+        <f>D5/D25 * 100</f>
+        <v>2.4236226511568448</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>4.74</v>
+        <v>3.2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>9.48</v>
+        <v>3.2</v>
       </c>
       <c r="E6">
-        <f>D6/D29 * 100</f>
-        <v>2.0040588533739223</v>
+        <f>D6/D25 * 100</f>
+        <v>0.81810047296433586</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>3.2</v>
@@ -790,19 +763,19 @@
         <v>3.2</v>
       </c>
       <c r="E7">
-        <f>D7/D29 * 100</f>
-        <v>0.67647556232031125</v>
+        <f>D7/D25 * 100</f>
+        <v>0.81810047296433586</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>3.2</v>
@@ -815,19 +788,19 @@
         <v>3.2</v>
       </c>
       <c r="E8">
-        <f>D8/D29 * 100</f>
-        <v>0.67647556232031125</v>
+        <f>D8/D25 * 100</f>
+        <v>0.81810047296433586</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>3.2</v>
@@ -840,161 +813,161 @@
         <v>3.2</v>
       </c>
       <c r="E9">
-        <f>D9/D29 * 100</f>
-        <v>0.67647556232031125</v>
+        <f>D9/D25 * 100</f>
+        <v>0.81810047296433586</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B10">
-        <v>3.2</v>
+        <v>7.25</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <f>D10/D29 * 100</f>
-        <v>0.67647556232031125</v>
+        <f>D10/D25 * 100</f>
+        <v>7.414035536239294</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B11">
-        <v>1.58</v>
+        <v>13.41</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>4.74</v>
+        <v>53.64</v>
       </c>
       <c r="E11">
-        <f>D11/D29 * 100</f>
-        <v>1.0020294266869612</v>
+        <f>D11/D25 * 100</f>
+        <v>13.713409178064682</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B12">
-        <v>22.21</v>
+        <v>6.99</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>88.84</v>
+        <v>20.97</v>
       </c>
       <c r="E12">
-        <f>D12/D29 * 100</f>
-        <v>18.78065279891764</v>
+        <f>D12/D25 * 100</f>
+        <v>5.3611146618944128</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B13">
-        <v>25.15</v>
+        <v>7.2</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>100.6</v>
+        <v>14.4</v>
       </c>
       <c r="E13">
-        <f>D13/D29 * 100</f>
-        <v>21.266700490444784</v>
+        <f>D13/D25 * 100</f>
+        <v>3.6814521283395116</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B14">
-        <v>6.42</v>
+        <v>10.62</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>19.259999999999998</v>
+        <v>10.62</v>
       </c>
       <c r="E14">
-        <f>D14/D29 * 100</f>
-        <v>4.0715372907153728</v>
+        <f>D14/D25 * 100</f>
+        <v>2.7150709446503893</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>16.41</v>
+        <v>29.99</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>32.82</v>
+        <v>29.99</v>
       </c>
       <c r="E15">
-        <f>D15/D29 * 100</f>
-        <v>6.9381024860476925</v>
+        <f>D15/D25 * 100</f>
+        <v>7.6671353700626348</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1002,24 +975,24 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16">
-        <v>10.62</v>
+        <v>16.59</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>10.62</v>
+        <v>16.59</v>
       </c>
       <c r="E16">
-        <f>D16/D29 * 100</f>
-        <v>2.2450532724505328</v>
+        <f>D16/D25 * 100</f>
+        <v>4.2413396395244787</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -1027,240 +1000,162 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B17">
-        <v>29.99</v>
+        <v>8.94</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>29.99</v>
+        <v>26.82</v>
       </c>
       <c r="E17">
-        <f>D17/D29 * 100</f>
-        <v>6.3398444106206666</v>
+        <f>D17/D25 * 100</f>
+        <v>6.8567045890323408</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>16.59</v>
+        <v>14.28</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>16.59</v>
+        <v>14.28</v>
       </c>
       <c r="E18">
-        <f>D18/D29 * 100</f>
-        <v>3.5071029934043638</v>
+        <f>D18/D25 * 100</f>
+        <v>3.650773360603349</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B19">
-        <v>8.94</v>
+        <v>2.33</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>26.82</v>
+        <v>4.66</v>
       </c>
       <c r="E19">
-        <f>D19/D29 * 100</f>
-        <v>5.6697108066971085</v>
+        <f>D19/D25*100</f>
+        <v>1.1913588137543141</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B20">
-        <v>14.28</v>
+        <v>2.1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>14.28</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="E20">
-        <f>D20/D29 * 100</f>
-        <v>3.018772196854389</v>
+        <f>D20/D25*100</f>
+        <v>1.6106353061485366</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B21">
-        <v>2.33</v>
+        <v>9.9</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>4.66</v>
+        <v>118.80000000000001</v>
       </c>
       <c r="E21">
-        <f>D21/D29*100</f>
-        <v>0.98511753762895327</v>
+        <f>D21/D25*100</f>
+        <v>30.371980058800972</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22">
-        <v>1.59</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>6.36</v>
-      </c>
-      <c r="E22">
-        <f>D22/D29*100</f>
-        <v>1.3444951801116185</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23">
-        <v>0.49</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1.96</v>
-      </c>
-      <c r="E23">
-        <f>D23/D29*100</f>
-        <v>0.41434128192119069</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24">
-        <v>2.1</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="E24">
-        <f>D24/D29*100</f>
-        <v>1.3318112633181129</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29">
-        <f>SUM(D2:D24)</f>
-        <v>473.03999999999996</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <f>SUM(D2:D21)</f>
+        <v>391.15000000000003</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{5A713AEA-40CE-4D49-980C-AEEE61031616}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{343AFD06-BFA5-48A5-961B-30A3280EC2FF}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{2F80875A-8466-4A96-B2A4-FBBC94C0EAD4}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{2C068039-3E53-4331-8165-D3E2A3C1628C}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{8AEBF514-CAFD-42A1-A0A6-7AEB5C4EC8E9}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{72B89350-D523-40D6-82AE-4D97DC1CE84F}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{570C6D3E-EDE6-4C16-A220-E6CDFD15C351}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{95960E4C-5D04-44FD-B4CE-AD4FC6A623E6}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{274741FB-0D0A-40C2-83FE-753CCCDDC2EB}"/>
-    <hyperlink ref="F15" r:id="rId10" xr:uid="{E000D7A5-68C3-4BCD-B400-7FA42ABAD067}"/>
-    <hyperlink ref="F16" r:id="rId11" xr:uid="{96494C17-15CE-45E6-A4C7-E3D6259AFC2C}"/>
-    <hyperlink ref="F18" r:id="rId12" xr:uid="{9D6C14E6-807C-4C6C-A93B-59A78676C0E2}"/>
-    <hyperlink ref="F11" r:id="rId13" xr:uid="{704C7DD2-A13D-47CB-8FC7-2005B088F5C7}"/>
-    <hyperlink ref="F12" r:id="rId14" xr:uid="{2EE73562-0439-4A92-90A6-F27EBC372BA7}"/>
-    <hyperlink ref="F13" r:id="rId15" xr:uid="{FB0D1965-B2A3-404B-BECB-D99213B54E9B}"/>
-    <hyperlink ref="F21" r:id="rId16" xr:uid="{4C54C21A-BBB4-464B-A596-7EF826AF2E5B}"/>
-    <hyperlink ref="F14" r:id="rId17" xr:uid="{3E4A9EB1-C072-425C-B558-8DE4501FD672}"/>
-    <hyperlink ref="F17" r:id="rId18" display="https://www.amazon.com/Warthog-Universal-Harness-Pass-Thru-Buckles/dp/B074XHBCLD/ref=sr_1_1_sspa?dchild=1&amp;keywords=safety+harness&amp;qid=1590419916&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyQzhHUkxYVklCUzRIJmVuY3J5cHRlZElkPUEwNTk2MjUyTUdRU0xLS1JYNzM0JmVuY3J5cHRlZEFkSWQ9QTAxNzUwMTE2TlZOT0RXQlpEMFEmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl" xr:uid="{B3A25FA4-4B16-42D7-ADE7-EFBA20123ABA}"/>
-    <hyperlink ref="F19" r:id="rId19" xr:uid="{458C7BB6-81E4-41CE-8DCE-D0156A687FF2}"/>
-    <hyperlink ref="F20" r:id="rId20" xr:uid="{4B416205-EDF6-4CC1-80A7-DE42291C44F1}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{85DBFAE9-6FB0-4B56-880A-46C00ACFA0D4}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{B08C6388-EA15-4709-9D10-C623EBD6C443}"/>
-    <hyperlink ref="F24" r:id="rId23" display="https://usa.banggood.com/6DOF-MPU-6050-3-Axis-Gyro-With-Accelerometer-Sensor-Module-p-80862.html?utm_source=googleshopping&amp;utm_medium=cpc_organic&amp;gpla=1&amp;gmcCountry=US&amp;utm_content=shopping&amp;utm_campaign=usg-pc&amp;currency=USD&amp;createTmp=1&amp;utm_source=googleshopping&amp;utm_medium=cpc_bgcs&amp;utm_content=frank&amp;utm_campaign=pla-usg-rm-all-purchase-pc&amp;gclid=CjwKCAjw2a32BRBXEiwAUcugiMjOR4mnxDofoVZLrlD05hTm2rP810ITpsSeAGkrOIhKZUHHhWaVJRoCf_8QAvD_BwE&amp;cur_warehouse=CN" xr:uid="{952CBBED-540C-4F78-9239-5A27C71A3041}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{DFEF5824-1763-4FCB-B58F-D8821F4A84F1}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{9E1CEABC-B41F-4A7C-92A6-50AB7A97E64B}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{50D84DAD-E5FE-45AE-A271-8185D31B87A2}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{B42A8B9F-6E67-4D3D-AB44-353D5375685D}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{35F9E5E4-DA54-4C5B-A126-10D3075E3FB2}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{DBF6B7C0-1661-4244-9EFC-7DE2A9B6DE8F}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{A8384B9E-8C12-45F7-A1EF-153447274FA6}"/>
+    <hyperlink ref="F14" r:id="rId8" xr:uid="{0D6CB634-CACE-4C43-B50D-B40D3743788A}"/>
+    <hyperlink ref="F16" r:id="rId9" xr:uid="{56AAE5C3-EDBF-491D-985F-DC7BEAA389AB}"/>
+    <hyperlink ref="F19" r:id="rId10" xr:uid="{639ADE3B-5B05-45C8-B376-D53691EF1FED}"/>
+    <hyperlink ref="F15" r:id="rId11" display="https://www.amazon.com/Warthog-Universal-Harness-Pass-Thru-Buckles/dp/B074XHBCLD/ref=sr_1_1_sspa?dchild=1&amp;keywords=safety+harness&amp;qid=1590419916&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyQzhHUkxYVklCUzRIJmVuY3J5cHRlZElkPUEwNTk2MjUyTUdRU0xLS1JYNzM0JmVuY3J5cHRlZEFkSWQ9QTAxNzUwMTE2TlZOT0RXQlpEMFEmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl" xr:uid="{954D84FA-0C74-4EAF-BAC9-528B34EC8390}"/>
+    <hyperlink ref="F17" r:id="rId12" xr:uid="{DA1E2107-DBDF-44F2-A9CC-C5143221EED7}"/>
+    <hyperlink ref="F18" r:id="rId13" xr:uid="{810154C5-4CD7-47BA-AD33-7E72342CDD68}"/>
+    <hyperlink ref="F20" r:id="rId14" display="https://usa.banggood.com/6DOF-MPU-6050-3-Axis-Gyro-With-Accelerometer-Sensor-Module-p-80862.html?utm_source=googleshopping&amp;utm_medium=cpc_organic&amp;gpla=1&amp;gmcCountry=US&amp;utm_content=shopping&amp;utm_campaign=usg-pc&amp;currency=USD&amp;createTmp=1&amp;utm_source=googleshopping&amp;utm_medium=cpc_bgcs&amp;utm_content=frank&amp;utm_campaign=pla-usg-rm-all-purchase-pc&amp;gclid=CjwKCAjw2a32BRBXEiwAUcugiMjOR4mnxDofoVZLrlD05hTm2rP810ITpsSeAGkrOIhKZUHHhWaVJRoCf_8QAvD_BwE&amp;cur_warehouse=CN" xr:uid="{EBB8B135-D45E-485E-9ECC-C5C06E558742}"/>
+    <hyperlink ref="F12" r:id="rId15" display="https://usa.banggood.com/ESP32-Development-Board-WiFi+bluetooth-Ultra-Low-Power-Consumption-Dual-Cores-ESP-32-ESP-32S-Board-p-1109512.html?utm_source=googleshopping&amp;utm_medium=cpc_organic&amp;gmcCountry=US&amp;utm_content=minha&amp;utm_campaign=minha-usg-pc&amp;currency=USD&amp;createTmp=1&amp;cur_warehouse=CN" xr:uid="{DB84EDE2-27FB-4C7C-9FE1-036894AA7D50}"/>
+    <hyperlink ref="F21" r:id="rId16" xr:uid="{3D90E142-693D-4386-829E-8A03F2B117CF}"/>
+    <hyperlink ref="F10" r:id="rId17" xr:uid="{BE532C31-C7CA-408E-87A3-4D9C9F451EA1}"/>
+    <hyperlink ref="F11" r:id="rId18" xr:uid="{A3120A36-2EC1-4DEB-B545-937325447134}"/>
+    <hyperlink ref="F2" r:id="rId19" xr:uid="{8B9B7160-AD6C-42F1-8B26-2383C6A65418}"/>
+    <hyperlink ref="F13" r:id="rId20" xr:uid="{0F563F10-B6B8-4467-9854-F5DB765BCC04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/BOM-OnlyPoweredBraking.xlsx
+++ b/BOM-OnlyPoweredBraking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Projects\finallyfunctional\vr-shoes-3d-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D58869-4A3C-4A1C-8FDC-744F8DBA4DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EF0CFE-CB00-4796-A466-007DD72D8C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28935" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{F7647867-DBAA-4F53-AE8E-AF47AE8504CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7647867-DBAA-4F53-AE8E-AF47AE8504CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,7 +639,7 @@
       </c>
       <c r="E2">
         <f>D2/D25 * 100</f>
-        <v>3.9371085261408667</v>
+        <v>4.0291986080950259</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -664,7 +664,7 @@
       </c>
       <c r="E3">
         <f>D3/D25 * 100</f>
-        <v>0.7158379138437938</v>
+        <v>0.73258156510818651</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -689,7 +689,7 @@
       </c>
       <c r="E4">
         <f>D4/D25 * 100</f>
-        <v>1.1760194298862328</v>
+        <v>1.2035268569634492</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -714,7 +714,7 @@
       </c>
       <c r="E5">
         <f>D5/D25 * 100</f>
-        <v>2.4236226511568448</v>
+        <v>2.4803118704377174</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="E6">
         <f>D6/D25 * 100</f>
-        <v>0.81810047296433586</v>
+        <v>0.83723607440935621</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -764,7 +764,7 @@
       </c>
       <c r="E7">
         <f>D7/D25 * 100</f>
-        <v>0.81810047296433586</v>
+        <v>0.83723607440935621</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -789,7 +789,7 @@
       </c>
       <c r="E8">
         <f>D8/D25 * 100</f>
-        <v>0.81810047296433586</v>
+        <v>0.83723607440935621</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
@@ -814,7 +814,7 @@
       </c>
       <c r="E9">
         <f>D9/D25 * 100</f>
-        <v>0.81810047296433586</v>
+        <v>0.83723607440935621</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
@@ -839,7 +839,7 @@
       </c>
       <c r="E10">
         <f>D10/D25 * 100</f>
-        <v>7.414035536239294</v>
+        <v>7.5874519243347889</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>58</v>
@@ -864,7 +864,7 @@
       </c>
       <c r="E11">
         <f>D11/D25 * 100</f>
-        <v>13.713409178064682</v>
+        <v>14.03416969728683</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>60</v>
@@ -889,7 +889,7 @@
       </c>
       <c r="E12">
         <f>D12/D25 * 100</f>
-        <v>5.3611146618944128</v>
+        <v>5.4865126501138111</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>53</v>
@@ -914,7 +914,7 @@
       </c>
       <c r="E13">
         <f>D13/D25 * 100</f>
-        <v>3.6814521283395116</v>
+        <v>3.7675623348421019</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>62</v>
@@ -939,7 +939,7 @@
       </c>
       <c r="E14">
         <f>D14/D25 * 100</f>
-        <v>2.7150709446503893</v>
+        <v>2.7785772219460503</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>27</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="E15">
         <f>D15/D25 * 100</f>
-        <v>7.6671353700626348</v>
+        <v>7.8464718348551825</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>40</v>
@@ -989,7 +989,7 @@
       </c>
       <c r="E16">
         <f>D16/D25 * 100</f>
-        <v>4.2413396395244787</v>
+        <v>4.3405457732660055</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>31</v>
@@ -1006,15 +1006,15 @@
         <v>8.94</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>26.82</v>
+        <v>17.88</v>
       </c>
       <c r="E17">
         <f>D17/D25 * 100</f>
-        <v>6.8567045890323408</v>
+        <v>4.6780565657622768</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>42</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="E18">
         <f>D18/D25 * 100</f>
-        <v>3.650773360603349</v>
+        <v>3.7361659820517512</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>44</v>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E19">
         <f>D19/D25*100</f>
-        <v>1.1913588137543141</v>
+        <v>1.2192250333586248</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>38</v>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="E20">
         <f>D20/D25*100</f>
-        <v>1.6106353061485366</v>
+        <v>1.6483085214934201</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>45</v>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="E21">
         <f>D21/D25*100</f>
-        <v>30.371980058800972</v>
+        <v>31.082389262447347</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>55</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="D25">
         <f>SUM(D2:D21)</f>
-        <v>391.15000000000003</v>
+        <v>382.21000000000004</v>
       </c>
     </row>
   </sheetData>
